--- a/Chapter01/Managing.xlsx
+++ b/Chapter01/Managing.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curt\Desktop\Exercise Files\Chapter01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scarstruck/Git/excel_pivot_tables/Chapter01/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3B50F9-BAF6-7147-8EFE-131DCEE336AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25480" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,7 +19,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -155,7 +156,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Curt" refreshedDate="41303.97189976852" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="20">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Curt" refreshedDate="41303.97189976852" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="20" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -190,7 +191,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -295,10 +296,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="DeptQuarter" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisCol" showAll="0">
       <items count="6">
         <item x="0"/>
         <item x="1"/>
@@ -308,7 +309,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="5">
         <item x="0"/>
         <item x="1"/>
@@ -320,9 +321,29 @@
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
     <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
+  </colFields>
+  <colItems count="6">
     <i>
       <x/>
     </i>
@@ -341,46 +362,29 @@
     <i t="grand">
       <x/>
     </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Sales" fld="2" baseField="0" baseItem="0" numFmtId="3"/>
+    <dataField name="Sum of Sales" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C21" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:C21" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Department"/>
-    <tableColumn id="2" name="Quarter"/>
-    <tableColumn id="3" name="Sales"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Department"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sales"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -648,22 +652,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -671,143 +675,141 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>51992</v>
       </c>
       <c r="C5" s="4">
+        <v>70127</v>
+      </c>
+      <c r="D5" s="4">
+        <v>17579</v>
+      </c>
+      <c r="E5" s="4">
+        <v>21909</v>
+      </c>
+      <c r="F5" s="4">
+        <v>64682</v>
+      </c>
+      <c r="G5" s="4">
+        <v>226289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
         <v>45427</v>
-      </c>
-      <c r="D5" s="4">
-        <v>38092</v>
-      </c>
-      <c r="E5" s="4">
-        <v>33519</v>
-      </c>
-      <c r="F5" s="4">
-        <v>169030</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>70127</v>
       </c>
       <c r="C6" s="4">
         <v>54718</v>
       </c>
       <c r="D6" s="4">
+        <v>23392</v>
+      </c>
+      <c r="E6" s="4">
+        <v>55578</v>
+      </c>
+      <c r="F6" s="4">
+        <v>20283</v>
+      </c>
+      <c r="G6" s="4">
+        <v>199398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>38092</v>
+      </c>
+      <c r="C7" s="4">
         <v>27576</v>
-      </c>
-      <c r="E6" s="4">
-        <v>26001</v>
-      </c>
-      <c r="F6" s="4">
-        <v>178422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
-        <v>17579</v>
-      </c>
-      <c r="C7" s="4">
-        <v>23392</v>
       </c>
       <c r="D7" s="4">
         <v>15770</v>
       </c>
       <c r="E7" s="4">
+        <v>64046</v>
+      </c>
+      <c r="F7" s="4">
+        <v>51359</v>
+      </c>
+      <c r="G7" s="4">
+        <v>196843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>33519</v>
+      </c>
+      <c r="C8" s="4">
+        <v>26001</v>
+      </c>
+      <c r="D8" s="4">
         <v>64154</v>
-      </c>
-      <c r="F7" s="4">
-        <v>120895</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
-        <v>21909</v>
-      </c>
-      <c r="C8" s="4">
-        <v>55578</v>
-      </c>
-      <c r="D8" s="4">
-        <v>64046</v>
       </c>
       <c r="E8" s="4">
         <v>46200</v>
       </c>
       <c r="F8" s="4">
+        <v>28976</v>
+      </c>
+      <c r="G8" s="4">
+        <v>198850</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>169030</v>
+      </c>
+      <c r="C9" s="4">
+        <v>178422</v>
+      </c>
+      <c r="D9" s="4">
+        <v>120895</v>
+      </c>
+      <c r="E9" s="4">
         <v>187733</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>64682</v>
-      </c>
-      <c r="C9" s="4">
-        <v>20283</v>
-      </c>
-      <c r="D9" s="4">
-        <v>51359</v>
-      </c>
-      <c r="E9" s="4">
-        <v>28976</v>
       </c>
       <c r="F9" s="4">
         <v>165300</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>226289</v>
-      </c>
-      <c r="C10" s="4">
-        <v>199398</v>
-      </c>
-      <c r="D10" s="4">
-        <v>196843</v>
-      </c>
-      <c r="E10" s="4">
-        <v>198850</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="G9" s="4">
         <v>821380</v>
       </c>
     </row>
@@ -817,33 +819,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,7 +858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -865,7 +869,7 @@
         <v>51992</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -876,7 +880,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -887,7 +891,7 @@
         <v>38092</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -898,7 +902,7 @@
         <v>33519</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -909,7 +913,7 @@
         <v>70127</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -920,7 +924,7 @@
         <v>54718</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -931,7 +935,7 @@
         <v>27576</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -942,7 +946,7 @@
         <v>26001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -953,7 +957,7 @@
         <v>17579</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -964,7 +968,7 @@
         <v>23392</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -975,7 +979,7 @@
         <v>15770</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -986,7 +990,7 @@
         <v>64154</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -997,7 +1001,7 @@
         <v>21909</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1008,7 +1012,7 @@
         <v>55578</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1019,7 +1023,7 @@
         <v>64046</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1030,7 +1034,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1041,7 +1045,7 @@
         <v>64682</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1052,7 +1056,7 @@
         <v>20283</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1063,7 +1067,7 @@
         <v>51359</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
